--- a/Git_Hub_Data_Excel/Feb_2010.xlsx
+++ b/Git_Hub_Data_Excel/Feb_2010.xlsx
@@ -14,9 +14,11 @@
   <sheets>
     <sheet name="Formatted Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Feb_2010" localSheetId="1">Sheet1!$A$1:$D$2229</definedName>
+    <definedName name="Feb_2010LOC" localSheetId="1">Sheet1!$E$2:$H$551</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -65,8 +67,18 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Feb_2010" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Git_Hub_Raw_Data_Text\Feb_2010.txt" space="1" comma="1" consecutive="1" delimiter=":">
+    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Git_Hub_Raw_Data_Text\Feb_2010.txt" space="1" comma="1" semicolon="1" consecutive="1" delimiter=":">
       <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Feb_2010LOC" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Git_Hub_Raw_Data_Text\Feb_2010LOC.txt" comma="1" delimiter=":">
+      <textFields count="4">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -77,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="668">
   <si>
     <t>GHTorrentName</t>
   </si>
@@ -2177,6 +2189,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2010LOC" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2010" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -9286,10 +9302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2229"/>
+  <dimension ref="A1:UH2229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1278" workbookViewId="0">
-      <selection activeCell="G329" sqref="G329"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9298,9 +9314,12 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:554" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -9308,12 +9327,3130 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:554" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CM2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DJ2" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="EJ2" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="ER2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="EW2" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="FW2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="FX2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FY2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FZ2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="GA2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="GB2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="GG2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="GH2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="GI2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="GM2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="GN2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="GO2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="GP2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="GQ2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="GT2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="GV2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="GW2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="GY2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="HC2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="HD2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="HE2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="HF2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="HG2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="HH2" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="HI2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="HJ2" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="HK2" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="HL2" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="HN2" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="HO2" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="HP2" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="HQ2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="HR2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="HT2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="HU2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="HV2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="HW2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="HX2" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="HY2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="HZ2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="IA2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="IB2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="IC2" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="ID2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="IE2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="IF2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="IG2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="IH2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="II2" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="IJ2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IK2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IL2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IM2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="IN2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="IO2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="IP2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="IQ2" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="IR2" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="IS2" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="IT2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="IU2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="IV2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="IW2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IX2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IY2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="IZ2" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="JA2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="JB2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="JC2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="JD2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="JE2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="JF2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JG2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JH2" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="JI2" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="JJ2" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="JL2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="JM2" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="JN2" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="JO2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="JP2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="JQ2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="JR2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="JS2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="JT2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JU2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JV2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="JW2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="JX2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="JY2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="JZ2" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="KA2" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="KB2" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="KC2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="KD2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="KE2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="KF2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="KG2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="KH2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="KI2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="KJ2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="KK2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="KL2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="KM2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="KN2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="KO2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="KP2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="KQ2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="KR2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="KS2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="KT2" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="KU2" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="KV2" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="KW2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="KX2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="KY2" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="KZ2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="LA2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="LB2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="LC2" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="LD2" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="LE2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="LF2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="LG2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="LH2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="LI2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="LJ2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="LK2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="LL2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="LM2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="LN2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="LO2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="LP2" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="LQ2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="LR2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="LS2" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="LT2" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="LU2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="LV2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="LW2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="LX2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="LY2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="LZ2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="MA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="MB2" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="MC2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="MD2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="ME2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="MF2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="MG2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="MH2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="MI2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="MJ2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="MK2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="ML2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="MM2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="MN2" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="MO2" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="MP2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="MQ2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="MR2" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="MS2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="MT2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="MU2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="MV2" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="MW2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="MX2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="MY2" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="MZ2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="NA2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="NB2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="NC2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="ND2" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="NE2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="NF2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="NG2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="NH2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="NI2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="NJ2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="NK2" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="NL2" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="NM2" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="NN2" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="NO2" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="NP2" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="NQ2" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="NR2" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="NS2" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="NT2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="NU2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="NV2" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="NW2" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="NX2" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="NY2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="NZ2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="OA2" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="OB2" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="OC2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="OD2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="OE2" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="OF2" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="OG2" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="OH2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="OI2" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="OJ2" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="OK2" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="OL2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="OM2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="ON2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="OO2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="OP2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="OQ2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="OR2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="OS2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="OT2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="OU2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="OV2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="OW2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="OX2" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="OY2" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="OZ2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="PA2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="PB2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="PC2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="PD2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="PE2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="PF2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="PG2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="PH2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="PI2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="PJ2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="PK2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="PL2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="PM2" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="PN2" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="PO2" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="PP2" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="PQ2" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="PR2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="PS2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="PT2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="PU2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="PV2" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="PW2" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="PX2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="PY2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="PZ2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="QA2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="QB2" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="QC2" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="QD2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="QE2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="QF2" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="QG2" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="QH2" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="QI2" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="QJ2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="QK2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="QL2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="QM2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="QN2" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="QO2" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="QP2" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="QQ2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="QR2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="QS2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="QT2" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="QU2" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="QV2" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="QW2" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="QX2" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="QY2" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="QZ2" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="RA2" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="RB2" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="RC2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="RD2" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="RE2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="RF2" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="RG2" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="RH2" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="RI2" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="RJ2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="RK2" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="RL2" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="RM2" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="RN2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="RO2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="RP2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="RQ2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="RR2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="RS2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="RT2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="RU2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="RV2" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="RW2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="RX2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="RY2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="RZ2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="SA2" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="SB2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="SC2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="SD2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="SE2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="SF2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="SG2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="SH2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="SI2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="SJ2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="SK2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="SL2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="SM2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="SN2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="SO2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="SP2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="SQ2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="SR2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="SS2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="ST2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="SU2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="SV2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="SW2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="SX2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="SY2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="SZ2" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TA2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="TB2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="TC2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="TD2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="TE2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="TF2" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TG2" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TH2" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TI2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TJ2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TK2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TL2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TM2" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="TN2" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="TO2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="TP2" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TQ2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TR2" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TS2" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TT2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="TU2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="TV2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="TW2" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="TX2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="TY2" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="TZ2" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA2" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="UB2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="UC2" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UD2" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UE2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="UF2" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UG2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="UH2" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:554" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2811</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1">
+        <v>376</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>21</v>
+      </c>
+      <c r="W3" s="1">
+        <v>38</v>
+      </c>
+      <c r="X3" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1">
+        <v>14</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>10</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>9</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>16</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1">
+        <v>12</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>16</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1">
+        <v>50</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>40</v>
+      </c>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>9</v>
+      </c>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1">
+        <v>7</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1">
+        <v>18</v>
+      </c>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>144</v>
+      </c>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CY3" s="1">
+        <v>5</v>
+      </c>
+      <c r="CZ3" s="1">
+        <v>7</v>
+      </c>
+      <c r="DA3" s="1">
+        <v>13</v>
+      </c>
+      <c r="DB3" s="1">
+        <v>8</v>
+      </c>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1">
+        <v>48</v>
+      </c>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1">
+        <v>20</v>
+      </c>
+      <c r="DO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS3" s="1">
+        <v>39</v>
+      </c>
+      <c r="DT3" s="1">
+        <v>15</v>
+      </c>
+      <c r="DU3" s="1">
+        <v>19</v>
+      </c>
+      <c r="DV3" s="1">
+        <v>5</v>
+      </c>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1">
+        <v>19</v>
+      </c>
+      <c r="DY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="1">
+        <v>8</v>
+      </c>
+      <c r="EB3" s="1">
+        <v>3</v>
+      </c>
+      <c r="EC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="1">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="1">
+        <v>85</v>
+      </c>
+      <c r="EF3" s="1">
+        <v>6</v>
+      </c>
+      <c r="EG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="EH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="EI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="EJ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="EK3" s="1">
+        <v>2</v>
+      </c>
+      <c r="EL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="EM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="EN3" s="1">
+        <v>4</v>
+      </c>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1">
+        <v>104</v>
+      </c>
+      <c r="EQ3" s="1">
+        <v>12</v>
+      </c>
+      <c r="ER3" s="1">
+        <v>55</v>
+      </c>
+      <c r="ES3" s="1">
+        <v>2</v>
+      </c>
+      <c r="ET3" s="1">
+        <v>2</v>
+      </c>
+      <c r="EU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="EV3" s="1">
+        <v>11</v>
+      </c>
+      <c r="EW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="EX3" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY3" s="1">
+        <v>9</v>
+      </c>
+      <c r="EZ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FA3" s="1">
+        <v>85</v>
+      </c>
+      <c r="FB3" s="1">
+        <v>85</v>
+      </c>
+      <c r="FC3" s="1">
+        <v>14</v>
+      </c>
+      <c r="FD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FG3" s="1">
+        <v>38</v>
+      </c>
+      <c r="FH3" s="1">
+        <v>7</v>
+      </c>
+      <c r="FI3" s="1">
+        <v>11</v>
+      </c>
+      <c r="FJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FK3" s="1">
+        <v>5</v>
+      </c>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1">
+        <v>14</v>
+      </c>
+      <c r="FN3" s="1">
+        <v>30</v>
+      </c>
+      <c r="FO3" s="1">
+        <v>28</v>
+      </c>
+      <c r="FP3" s="1">
+        <v>7</v>
+      </c>
+      <c r="FQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1">
+        <v>5</v>
+      </c>
+      <c r="FT3" s="1">
+        <v>15</v>
+      </c>
+      <c r="FU3" s="1">
+        <v>22</v>
+      </c>
+      <c r="FV3" s="1">
+        <v>6</v>
+      </c>
+      <c r="FW3" s="1">
+        <v>7</v>
+      </c>
+      <c r="FX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="1">
+        <v>9</v>
+      </c>
+      <c r="FZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="1">
+        <v>5</v>
+      </c>
+      <c r="GB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="1">
+        <v>12</v>
+      </c>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1">
+        <v>16</v>
+      </c>
+      <c r="GF3" s="1">
+        <v>10</v>
+      </c>
+      <c r="GG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GH3" s="1">
+        <v>6</v>
+      </c>
+      <c r="GI3" s="1">
+        <v>21</v>
+      </c>
+      <c r="GJ3" s="1">
+        <v>6</v>
+      </c>
+      <c r="GK3" s="1">
+        <v>34</v>
+      </c>
+      <c r="GL3" s="1">
+        <v>22</v>
+      </c>
+      <c r="GM3" s="1">
+        <v>8</v>
+      </c>
+      <c r="GN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GO3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GP3" s="1">
+        <v>23</v>
+      </c>
+      <c r="GQ3" s="1">
+        <v>20</v>
+      </c>
+      <c r="GR3" s="1">
+        <v>26</v>
+      </c>
+      <c r="GS3" s="1">
+        <v>8</v>
+      </c>
+      <c r="GT3" s="1">
+        <v>18</v>
+      </c>
+      <c r="GU3" s="1">
+        <v>42</v>
+      </c>
+      <c r="GV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GW3" s="1">
+        <v>48</v>
+      </c>
+      <c r="GX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="GY3" s="1">
+        <v>10</v>
+      </c>
+      <c r="GZ3" s="1">
+        <v>30</v>
+      </c>
+      <c r="HA3" s="1">
+        <v>39</v>
+      </c>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1">
+        <v>8</v>
+      </c>
+      <c r="HD3" s="1">
+        <v>18</v>
+      </c>
+      <c r="HE3" s="1">
+        <v>42</v>
+      </c>
+      <c r="HF3" s="1">
+        <v>126</v>
+      </c>
+      <c r="HG3" s="1">
+        <v>324</v>
+      </c>
+      <c r="HH3" s="1">
+        <v>11</v>
+      </c>
+      <c r="HI3" s="1">
+        <v>20</v>
+      </c>
+      <c r="HJ3" s="1">
+        <v>64</v>
+      </c>
+      <c r="HK3" s="1">
+        <v>39</v>
+      </c>
+      <c r="HL3" s="1">
+        <v>77</v>
+      </c>
+      <c r="HM3" s="1">
+        <v>28</v>
+      </c>
+      <c r="HN3" s="1">
+        <v>18</v>
+      </c>
+      <c r="HO3" s="1">
+        <v>17</v>
+      </c>
+      <c r="HP3" s="1">
+        <v>12</v>
+      </c>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1">
+        <v>6</v>
+      </c>
+      <c r="HS3" s="1">
+        <v>6</v>
+      </c>
+      <c r="HT3" s="1">
+        <v>7</v>
+      </c>
+      <c r="HU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="HV3" s="1">
+        <v>11</v>
+      </c>
+      <c r="HW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="HX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="HY3" s="1">
+        <v>6</v>
+      </c>
+      <c r="HZ3" s="1">
+        <v>16</v>
+      </c>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1">
+        <v>24</v>
+      </c>
+      <c r="IC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="ID3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IE3" s="1">
+        <v>68</v>
+      </c>
+      <c r="IF3" s="1">
+        <v>103</v>
+      </c>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1">
+        <v>60</v>
+      </c>
+      <c r="II3" s="1">
+        <v>8</v>
+      </c>
+      <c r="IJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="IK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="IL3" s="1">
+        <v>13</v>
+      </c>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1">
+        <v>98</v>
+      </c>
+      <c r="IO3" s="1">
+        <v>28</v>
+      </c>
+      <c r="IP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IR3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IS3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IT3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IV3" s="1">
+        <v>134</v>
+      </c>
+      <c r="IW3" s="1">
+        <v>116</v>
+      </c>
+      <c r="IX3" s="1"/>
+      <c r="IY3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IZ3" s="1">
+        <v>27</v>
+      </c>
+      <c r="JA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="JB3" s="1">
+        <v>83</v>
+      </c>
+      <c r="JC3" s="1">
+        <v>24</v>
+      </c>
+      <c r="JD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="JE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="JF3" s="1"/>
+      <c r="JG3" s="1">
+        <v>111</v>
+      </c>
+      <c r="JH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="JI3" s="1"/>
+      <c r="JJ3" s="1">
+        <v>22</v>
+      </c>
+      <c r="JK3" s="1"/>
+      <c r="JL3" s="1">
+        <v>30</v>
+      </c>
+      <c r="JM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="JN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="JO3" s="1">
+        <v>3</v>
+      </c>
+      <c r="JP3" s="1">
+        <v>5</v>
+      </c>
+      <c r="JQ3" s="1">
+        <v>20</v>
+      </c>
+      <c r="JR3" s="1">
+        <v>13</v>
+      </c>
+      <c r="JS3" s="1">
+        <v>12</v>
+      </c>
+      <c r="JT3" s="1"/>
+      <c r="JU3" s="1">
+        <v>55</v>
+      </c>
+      <c r="JV3" s="1">
+        <v>5</v>
+      </c>
+      <c r="JW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="JX3" s="1">
+        <v>17</v>
+      </c>
+      <c r="JY3" s="1">
+        <v>3</v>
+      </c>
+      <c r="JZ3" s="1">
+        <v>27</v>
+      </c>
+      <c r="KA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="KB3" s="1">
+        <v>6</v>
+      </c>
+      <c r="KC3" s="1">
+        <v>4</v>
+      </c>
+      <c r="KD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="KE3" s="1">
+        <v>100</v>
+      </c>
+      <c r="KF3" s="1">
+        <v>5</v>
+      </c>
+      <c r="KG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="KH3" s="1">
+        <v>20</v>
+      </c>
+      <c r="KI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="KJ3" s="1">
+        <v>91</v>
+      </c>
+      <c r="KK3" s="1">
+        <v>91</v>
+      </c>
+      <c r="KL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="KM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="KN3" s="1">
+        <v>10</v>
+      </c>
+      <c r="KO3" s="1"/>
+      <c r="KP3" s="1">
+        <v>76</v>
+      </c>
+      <c r="KQ3" s="1"/>
+      <c r="KR3" s="1">
+        <v>74</v>
+      </c>
+      <c r="KS3" s="1">
+        <v>2</v>
+      </c>
+      <c r="KT3" s="1">
+        <v>2</v>
+      </c>
+      <c r="KU3" s="1"/>
+      <c r="KV3" s="1">
+        <v>10</v>
+      </c>
+      <c r="KW3" s="1"/>
+      <c r="KX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="KY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="KZ3" s="1"/>
+      <c r="LA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="LB3" s="1">
+        <v>10</v>
+      </c>
+      <c r="LC3" s="1"/>
+      <c r="LD3" s="1">
+        <v>16</v>
+      </c>
+      <c r="LE3" s="1"/>
+      <c r="LF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="LG3" s="1">
+        <v>2</v>
+      </c>
+      <c r="LH3" s="1"/>
+      <c r="LI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="LJ3" s="1"/>
+      <c r="LK3" s="1"/>
+      <c r="LL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="LM3" s="1">
+        <v>21</v>
+      </c>
+      <c r="LN3" s="1"/>
+      <c r="LO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="LP3" s="1">
+        <v>17</v>
+      </c>
+      <c r="LQ3" s="1"/>
+      <c r="LR3" s="1">
+        <v>21</v>
+      </c>
+      <c r="LS3" s="1">
+        <v>93</v>
+      </c>
+      <c r="LT3" s="1">
+        <v>18</v>
+      </c>
+      <c r="LU3" s="1">
+        <v>20</v>
+      </c>
+      <c r="LV3" s="1">
+        <v>3</v>
+      </c>
+      <c r="LW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="LX3" s="1">
+        <v>4</v>
+      </c>
+      <c r="LY3" s="1">
+        <v>40</v>
+      </c>
+      <c r="LZ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="MA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="MB3" s="1">
+        <v>6</v>
+      </c>
+      <c r="MC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="MD3" s="1">
+        <v>19</v>
+      </c>
+      <c r="ME3" s="1"/>
+      <c r="MF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="MG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="MH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="MI3" s="1">
+        <v>39</v>
+      </c>
+      <c r="MJ3" s="1"/>
+      <c r="MK3" s="1">
+        <v>2</v>
+      </c>
+      <c r="ML3" s="1">
+        <v>3</v>
+      </c>
+      <c r="MM3" s="1"/>
+      <c r="MN3" s="1">
+        <v>48</v>
+      </c>
+      <c r="MO3" s="1">
+        <v>12</v>
+      </c>
+      <c r="MP3" s="1"/>
+      <c r="MQ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="MR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="MS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="MT3" s="1">
+        <v>2</v>
+      </c>
+      <c r="MU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="MV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="MW3" s="1">
+        <v>63</v>
+      </c>
+      <c r="MX3" s="1">
+        <v>12</v>
+      </c>
+      <c r="MY3" s="1">
+        <v>4</v>
+      </c>
+      <c r="MZ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NA3" s="1">
+        <v>3</v>
+      </c>
+      <c r="NB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="ND3" s="1">
+        <v>5</v>
+      </c>
+      <c r="NE3" s="1">
+        <v>19</v>
+      </c>
+      <c r="NF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="NH3" s="1">
+        <v>18</v>
+      </c>
+      <c r="NI3" s="1">
+        <v>4</v>
+      </c>
+      <c r="NJ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="NK3" s="1">
+        <v>5</v>
+      </c>
+      <c r="NL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NO3" s="1"/>
+      <c r="NP3" s="1">
+        <v>86</v>
+      </c>
+      <c r="NQ3" s="1"/>
+      <c r="NR3" s="1">
+        <v>4</v>
+      </c>
+      <c r="NS3" s="1"/>
+      <c r="NT3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NU3" s="1"/>
+      <c r="NV3" s="1">
+        <v>8</v>
+      </c>
+      <c r="NW3" s="1"/>
+      <c r="NX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="NY3" s="1"/>
+      <c r="NZ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="OA3" s="1">
+        <v>8</v>
+      </c>
+      <c r="OB3" s="1"/>
+      <c r="OC3" s="1">
+        <v>42</v>
+      </c>
+      <c r="OD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="OE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="OF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="OG3" s="1">
+        <v>2</v>
+      </c>
+      <c r="OH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="OI3" s="1">
+        <v>7</v>
+      </c>
+      <c r="OJ3" s="1">
+        <v>96</v>
+      </c>
+      <c r="OK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="OM3" s="1">
+        <v>4</v>
+      </c>
+      <c r="ON3" s="1"/>
+      <c r="OO3" s="1">
+        <v>5</v>
+      </c>
+      <c r="OP3" s="1">
+        <v>7</v>
+      </c>
+      <c r="OQ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="OR3" s="1"/>
+      <c r="OS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="OT3" s="1"/>
+      <c r="OU3" s="1">
+        <v>5</v>
+      </c>
+      <c r="OV3" s="1"/>
+      <c r="OW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="OX3" s="1"/>
+      <c r="OY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OZ3" s="1"/>
+      <c r="PA3" s="1">
+        <v>6</v>
+      </c>
+      <c r="PB3" s="1"/>
+      <c r="PC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PG3" s="1"/>
+      <c r="PH3" s="1">
+        <v>5</v>
+      </c>
+      <c r="PI3" s="1"/>
+      <c r="PJ3" s="1">
+        <v>6</v>
+      </c>
+      <c r="PK3" s="1">
+        <v>5</v>
+      </c>
+      <c r="PL3" s="1"/>
+      <c r="PM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PN3" s="1">
+        <v>3</v>
+      </c>
+      <c r="PO3" s="1">
+        <v>3</v>
+      </c>
+      <c r="PP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PS3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PT3" s="1"/>
+      <c r="PU3" s="1">
+        <v>15</v>
+      </c>
+      <c r="PV3" s="1"/>
+      <c r="PW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="PY3" s="1">
+        <v>4</v>
+      </c>
+      <c r="PZ3" s="1"/>
+      <c r="QA3" s="1">
+        <v>14</v>
+      </c>
+      <c r="QB3" s="1"/>
+      <c r="QC3" s="1">
+        <v>41</v>
+      </c>
+      <c r="QD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="QE3" s="1">
+        <v>23</v>
+      </c>
+      <c r="QF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="QG3" s="1">
+        <v>2</v>
+      </c>
+      <c r="QH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="QI3" s="1">
+        <v>14</v>
+      </c>
+      <c r="QJ3" s="1">
+        <v>5</v>
+      </c>
+      <c r="QK3" s="1"/>
+      <c r="QL3" s="1">
+        <v>13</v>
+      </c>
+      <c r="QM3" s="1"/>
+      <c r="QN3" s="1">
+        <v>23</v>
+      </c>
+      <c r="QO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="QP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="QQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="QR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="QS3" s="1"/>
+      <c r="QT3" s="1">
+        <v>6</v>
+      </c>
+      <c r="QU3" s="1">
+        <v>8</v>
+      </c>
+      <c r="QV3" s="1">
+        <v>6</v>
+      </c>
+      <c r="QW3" s="1">
+        <v>4</v>
+      </c>
+      <c r="QX3" s="1">
+        <v>4</v>
+      </c>
+      <c r="QY3" s="1">
+        <v>580</v>
+      </c>
+      <c r="QZ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="RA3" s="1">
+        <v>11</v>
+      </c>
+      <c r="RB3" s="1"/>
+      <c r="RC3" s="1">
+        <v>5</v>
+      </c>
+      <c r="RD3" s="1">
+        <v>13</v>
+      </c>
+      <c r="RE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="RF3" s="1">
+        <v>6</v>
+      </c>
+      <c r="RG3" s="1">
+        <v>6</v>
+      </c>
+      <c r="RH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="RI3" s="1">
+        <v>4</v>
+      </c>
+      <c r="RJ3" s="1">
+        <v>12</v>
+      </c>
+      <c r="RK3" s="1">
+        <v>6</v>
+      </c>
+      <c r="RL3" s="1">
+        <v>16</v>
+      </c>
+      <c r="RM3" s="1">
+        <v>29</v>
+      </c>
+      <c r="RN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="RO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="RP3" s="1"/>
+      <c r="RQ3" s="1">
+        <v>7</v>
+      </c>
+      <c r="RR3" s="1">
+        <v>4</v>
+      </c>
+      <c r="RS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="RT3" s="1"/>
+      <c r="RU3" s="1">
+        <v>31</v>
+      </c>
+      <c r="RV3" s="1">
+        <v>43</v>
+      </c>
+      <c r="RW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="RX3" s="1"/>
+      <c r="RY3" s="1">
+        <v>10</v>
+      </c>
+      <c r="RZ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="SA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="SC3" s="1">
+        <v>3</v>
+      </c>
+      <c r="SD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="SE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG3" s="1">
+        <v>5</v>
+      </c>
+      <c r="SH3" s="1"/>
+      <c r="SI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="SJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="SK3" s="1"/>
+      <c r="SL3" s="1">
+        <v>37</v>
+      </c>
+      <c r="SM3" s="1">
+        <v>112</v>
+      </c>
+      <c r="SN3" s="1"/>
+      <c r="SO3" s="1">
+        <v>22</v>
+      </c>
+      <c r="SP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="SQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="SR3" s="1">
+        <v>3</v>
+      </c>
+      <c r="SS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="ST3" s="1">
+        <v>2</v>
+      </c>
+      <c r="SU3" s="1">
+        <v>4</v>
+      </c>
+      <c r="SV3" s="1"/>
+      <c r="SW3" s="1">
+        <v>39</v>
+      </c>
+      <c r="SX3" s="1">
+        <v>7</v>
+      </c>
+      <c r="SY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SZ3" s="1"/>
+      <c r="TA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="TB3" s="1"/>
+      <c r="TC3" s="1">
+        <v>9</v>
+      </c>
+      <c r="TD3" s="1"/>
+      <c r="TE3" s="1">
+        <v>8</v>
+      </c>
+      <c r="TF3" s="1"/>
+      <c r="TG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="TH3" s="1"/>
+      <c r="TI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="TJ3" s="1">
+        <v>19</v>
+      </c>
+      <c r="TK3" s="1"/>
+      <c r="TL3" s="1">
+        <v>3</v>
+      </c>
+      <c r="TM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="TN3" s="1">
+        <v>8</v>
+      </c>
+      <c r="TO3" s="1">
+        <v>161</v>
+      </c>
+      <c r="TP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="TQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="TR3" s="1">
+        <v>9</v>
+      </c>
+      <c r="TS3" s="1">
+        <v>2</v>
+      </c>
+      <c r="TT3" s="1">
+        <v>3</v>
+      </c>
+      <c r="TU3" s="1">
+        <v>4</v>
+      </c>
+      <c r="TV3" s="1">
+        <v>9</v>
+      </c>
+      <c r="TW3" s="1">
+        <v>45</v>
+      </c>
+      <c r="TX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="TY3" s="1">
+        <v>45</v>
+      </c>
+      <c r="TZ3" s="1"/>
+      <c r="UA3" s="1">
+        <v>81</v>
+      </c>
+      <c r="UB3" s="1">
+        <v>22</v>
+      </c>
+      <c r="UC3" s="1">
+        <v>9</v>
+      </c>
+      <c r="UD3" s="1">
+        <v>12</v>
+      </c>
+      <c r="UE3" s="1">
+        <v>17</v>
+      </c>
+      <c r="UF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="UG3" s="1">
+        <v>15</v>
+      </c>
+      <c r="UH3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:554" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -9321,17 +12458,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:554" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:554" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:554" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.41599999999999998</v>
       </c>
@@ -9339,7 +12476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:554" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0.51100000000000001</v>
       </c>
@@ -9347,7 +12484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:554" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -9355,13 +12492,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:554" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:554" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -17149,6 +20286,4145 @@
       </c>
       <c r="C2229" t="s">
         <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B550"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B550"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>552</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>553</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>555</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>337</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>338</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>341</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>556</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>557</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>558</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>559</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>596</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>355</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>356</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>359</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>360</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>364</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>365</v>
+      </c>
+      <c r="B119">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>366</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>560</v>
+      </c>
+      <c r="B121">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>561</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>104</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>597</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>368</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>369</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>370</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>371</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>373</v>
+      </c>
+      <c r="B142">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>374</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>375</v>
+      </c>
+      <c r="B144">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>376</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>378</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>383</v>
+      </c>
+      <c r="B159">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>384</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>153</v>
+      </c>
+      <c r="B161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>154</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>155</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>599</v>
+      </c>
+      <c r="B166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>604</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>161</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>385</v>
+      </c>
+      <c r="B172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>386</v>
+      </c>
+      <c r="B173">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>605</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>163</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>388</v>
+      </c>
+      <c r="B184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>389</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>172</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>173</v>
+      </c>
+      <c r="B189">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>393</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>606</v>
+      </c>
+      <c r="B196">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>396</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>398</v>
+      </c>
+      <c r="B199">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>399</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>407</v>
+      </c>
+      <c r="B208">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>408</v>
+      </c>
+      <c r="B209">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>409</v>
+      </c>
+      <c r="B210">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>410</v>
+      </c>
+      <c r="B211">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>562</v>
+      </c>
+      <c r="B212">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>411</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>563</v>
+      </c>
+      <c r="B214">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>564</v>
+      </c>
+      <c r="B215">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>565</v>
+      </c>
+      <c r="B216">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>566</v>
+      </c>
+      <c r="B217">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>567</v>
+      </c>
+      <c r="B218">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>568</v>
+      </c>
+      <c r="B219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>569</v>
+      </c>
+      <c r="B220">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>242</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>243</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>412</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>413</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>414</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>415</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>600</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>601</v>
+      </c>
+      <c r="B229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>416</v>
+      </c>
+      <c r="B230">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>418</v>
+      </c>
+      <c r="B232">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>602</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>419</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>420</v>
+      </c>
+      <c r="B235">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>421</v>
+      </c>
+      <c r="B236">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>423</v>
+      </c>
+      <c r="B238">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>603</v>
+      </c>
+      <c r="B239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>425</v>
+      </c>
+      <c r="B244">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>426</v>
+      </c>
+      <c r="B245">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>428</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>607</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>608</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>609</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>429</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>430</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>431</v>
+      </c>
+      <c r="B252">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>247</v>
+      </c>
+      <c r="B253">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>432</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>570</v>
+      </c>
+      <c r="B256">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>433</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>434</v>
+      </c>
+      <c r="B258">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>435</v>
+      </c>
+      <c r="B259">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>437</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>438</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>610</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>612</v>
+      </c>
+      <c r="B266">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>441</v>
+      </c>
+      <c r="B268">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>571</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>572</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>442</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>443</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>444</v>
+      </c>
+      <c r="B273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>445</v>
+      </c>
+      <c r="B274">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>446</v>
+      </c>
+      <c r="B275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>269</v>
+      </c>
+      <c r="B277">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>447</v>
+      </c>
+      <c r="B278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>448</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>449</v>
+      </c>
+      <c r="B280">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>450</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>613</v>
+      </c>
+      <c r="B282">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>614</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>615</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>451</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>452</v>
+      </c>
+      <c r="B286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>174</v>
+      </c>
+      <c r="B287">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>177</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>178</v>
+      </c>
+      <c r="B290">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>179</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>180</v>
+      </c>
+      <c r="B292">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>181</v>
+      </c>
+      <c r="B293">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>182</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>183</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>249</v>
+      </c>
+      <c r="B296">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>251</v>
+      </c>
+      <c r="B298">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>185</v>
+      </c>
+      <c r="B300">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>186</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>573</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>618</v>
+      </c>
+      <c r="B304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>188</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>574</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>190</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>453</v>
+      </c>
+      <c r="B310">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>620</v>
+      </c>
+      <c r="B312">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>192</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>193</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>272</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>195</v>
+      </c>
+      <c r="B321">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>197</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>575</v>
+      </c>
+      <c r="B324">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>455</v>
+      </c>
+      <c r="B326">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B327">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>577</v>
+      </c>
+      <c r="B328">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>578</v>
+      </c>
+      <c r="B329">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>456</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>457</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>458</v>
+      </c>
+      <c r="B332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>459</v>
+      </c>
+      <c r="B333">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>460</v>
+      </c>
+      <c r="B334">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>92</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>550</v>
+      </c>
+      <c r="B336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>198</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>199</v>
+      </c>
+      <c r="B338">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>201</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>461</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>462</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>202</v>
+      </c>
+      <c r="B343">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>204</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>463</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>465</v>
+      </c>
+      <c r="B348">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>622</v>
+      </c>
+      <c r="B349">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>624</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>466</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>275</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>625</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>626</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>467</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>468</v>
+      </c>
+      <c r="B357">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>469</v>
+      </c>
+      <c r="B358">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>470</v>
+      </c>
+      <c r="B359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>471</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>472</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>473</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>474</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>475</v>
+      </c>
+      <c r="B364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>476</v>
+      </c>
+      <c r="B365">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>477</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>478</v>
+      </c>
+      <c r="B367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>205</v>
+      </c>
+      <c r="B368">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>479</v>
+      </c>
+      <c r="B369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>480</v>
+      </c>
+      <c r="B370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>579</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>580</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>627</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>628</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>630</v>
+      </c>
+      <c r="B376">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>632</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>482</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>634</v>
+      </c>
+      <c r="B382">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>483</v>
+      </c>
+      <c r="B384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>637</v>
+      </c>
+      <c r="B386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>484</v>
+      </c>
+      <c r="B387">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>108</v>
+      </c>
+      <c r="B389">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>486</v>
+      </c>
+      <c r="B390">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>638</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>639</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>640</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>487</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>641</v>
+      </c>
+      <c r="B395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>642</v>
+      </c>
+      <c r="B396">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>643</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>488</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>489</v>
+      </c>
+      <c r="B399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>491</v>
+      </c>
+      <c r="B401">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>206</v>
+      </c>
+      <c r="B402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>492</v>
+      </c>
+      <c r="B403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>277</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>494</v>
+      </c>
+      <c r="B407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>279</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>496</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>497</v>
+      </c>
+      <c r="B413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>282</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>498</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>499</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>500</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>502</v>
+      </c>
+      <c r="B420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B422">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>504</v>
+      </c>
+      <c r="B425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>581</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>582</v>
+      </c>
+      <c r="B427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>505</v>
+      </c>
+      <c r="B428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>583</v>
+      </c>
+      <c r="B429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>506</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>507</v>
+      </c>
+      <c r="B431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>509</v>
+      </c>
+      <c r="B433">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>645</v>
+      </c>
+      <c r="B435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>510</v>
+      </c>
+      <c r="B436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>511</v>
+      </c>
+      <c r="B437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>513</v>
+      </c>
+      <c r="B439">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>647</v>
+      </c>
+      <c r="B441">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>514</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>515</v>
+      </c>
+      <c r="B443">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>648</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>649</v>
+      </c>
+      <c r="B445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>584</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>585</v>
+      </c>
+      <c r="B447">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>286</v>
+      </c>
+      <c r="B448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>288</v>
+      </c>
+      <c r="B450">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>651</v>
+      </c>
+      <c r="B452">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>586</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>587</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>289</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>652</v>
+      </c>
+      <c r="B456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>653</v>
+      </c>
+      <c r="B458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>654</v>
+      </c>
+      <c r="B459">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>655</v>
+      </c>
+      <c r="B460">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>656</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>657</v>
+      </c>
+      <c r="B462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>658</v>
+      </c>
+      <c r="B463">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>659</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>660</v>
+      </c>
+      <c r="B465">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>662</v>
+      </c>
+      <c r="B467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>663</v>
+      </c>
+      <c r="B468">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>516</v>
+      </c>
+      <c r="B469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>517</v>
+      </c>
+      <c r="B470">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>518</v>
+      </c>
+      <c r="B471">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>664</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>520</v>
+      </c>
+      <c r="B474">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>521</v>
+      </c>
+      <c r="B475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>522</v>
+      </c>
+      <c r="B476">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B477">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>207</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>208</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>210</v>
+      </c>
+      <c r="B481">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>588</v>
+      </c>
+      <c r="B482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>524</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>212</v>
+      </c>
+      <c r="B485">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>589</v>
+      </c>
+      <c r="B486">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>213</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>215</v>
+      </c>
+      <c r="B489">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>590</v>
+      </c>
+      <c r="B490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>591</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>216</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>217</v>
+      </c>
+      <c r="B493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>219</v>
+      </c>
+      <c r="B494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>220</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>221</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>222</v>
+      </c>
+      <c r="B497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>224</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>592</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>226</v>
+      </c>
+      <c r="B502">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>525</v>
+      </c>
+      <c r="B503">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>527</v>
+      </c>
+      <c r="B505">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>528</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>227</v>
+      </c>
+      <c r="B507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>529</v>
+      </c>
+      <c r="B508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>530</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>228</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>229</v>
+      </c>
+      <c r="B511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>230</v>
+      </c>
+      <c r="B513">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>232</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>233</v>
+      </c>
+      <c r="B517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>292</v>
+      </c>
+      <c r="B519">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>107</v>
+      </c>
+      <c r="B521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>534</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>537</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>538</v>
+      </c>
+      <c r="B526">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>540</v>
+      </c>
+      <c r="B528">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>593</v>
+      </c>
+      <c r="B529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>594</v>
+      </c>
+      <c r="B530">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>595</v>
+      </c>
+      <c r="B531">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>541</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>542</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>543</v>
+      </c>
+      <c r="B534">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>544</v>
+      </c>
+      <c r="B535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>235</v>
+      </c>
+      <c r="B536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>236</v>
+      </c>
+      <c r="B537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>237</v>
+      </c>
+      <c r="B538">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>665</v>
+      </c>
+      <c r="B539">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>238</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>666</v>
+      </c>
+      <c r="B541">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>667</v>
+      </c>
+      <c r="B543">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>239</v>
+      </c>
+      <c r="B544">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>546</v>
+      </c>
+      <c r="B545">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>547</v>
+      </c>
+      <c r="B546">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>240</v>
+      </c>
+      <c r="B547">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B549">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>294</v>
+      </c>
+      <c r="B550">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
